--- a/verif_results/no_exact/datos_verificacion_sigmoid_1como2.xlsx
+++ b/verif_results/no_exact/datos_verificacion_sigmoid_1como2.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>5.855434894561768</v>
+        <v>5.696558475494385</v>
       </c>
       <c r="F1" t="n">
         <v>452</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>6.712037563323975</v>
+        <v>6.768495321273804</v>
       </c>
       <c r="L1" t="n">
         <v>442</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8.90118670463562</v>
+        <v>9.40485143661499</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>4.269641876220703</v>
+        <v>4.610146999359131</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.54854702949524</v>
+        <v>5.690157413482666</v>
       </c>
       <c r="F3" t="n">
-        <v>5722</v>
+        <v>2917</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>11.32830286026001</v>
+        <v>6.557371139526367</v>
       </c>
       <c r="L3" t="n">
-        <v>5813</v>
+        <v>3279</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>226.0411396026611</v>
+        <v>95.34524393081665</v>
       </c>
       <c r="F4" t="n">
-        <v>65428</v>
+        <v>27354</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>141.5863955020905</v>
+        <v>112.1510548591614</v>
       </c>
       <c r="L4" t="n">
-        <v>47029</v>
+        <v>28105</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0204155445098877</v>
+        <v>0.02027559280395508</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>5.316103935241699</v>
+        <v>5.334789752960205</v>
       </c>
       <c r="L5" t="n">
         <v>81</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.014905691146851</v>
+        <v>2.604509592056274</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>7.94865870475769</v>
+        <v>8.757086277008057</v>
       </c>
       <c r="L6" t="n">
         <v>47</v>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.0319516658782959</v>
+        <v>0.03374981880187988</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.03204560279846191</v>
+        <v>0.03370857238769531</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.0314180850982666</v>
+        <v>0.03356170654296875</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.03141450881958008</v>
+        <v>0.0335690975189209</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.82773494720459</v>
+        <v>1.702609777450562</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.781329870223999</v>
+        <v>1.689738988876343</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -968,13 +968,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>223.2944984436035</v>
+        <v>34.05026030540466</v>
       </c>
       <c r="F10" t="n">
-        <v>68498</v>
+        <v>2431</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.03480697314648556</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>optimal</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -992,10 +992,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>10.19161534309387</v>
+        <v>165.0225281715393</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>45953</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.749150991439819</v>
+        <v>3.774700164794922</v>
       </c>
       <c r="F11" t="n">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>2.99514627456665</v>
+        <v>4.542176246643066</v>
       </c>
       <c r="L11" t="n">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>646.0140085220337</v>
+        <v>900.000629901886</v>
       </c>
       <c r="F12" t="n">
-        <v>3548</v>
+        <v>2370</v>
       </c>
       <c r="G12" t="n">
-        <v>104.9444065728013</v>
+        <v>0.002430091153181414</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>timelimit</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>134.0823800563812</v>
+        <v>628.2074520587921</v>
       </c>
       <c r="L12" t="n">
-        <v>195</v>
+        <v>4269</v>
       </c>
       <c r="M12" t="n">
-        <v>104.9471064552429</v>
+        <v>104.6879909105753</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
